--- a/archive/russia/russia.xlsx
+++ b/archive/russia/russia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dev\projects\city_parser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dev\projects\intellect_pool\archive\russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69192E-8BB3-4D42-ACE2-54ECF7EB4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B30D5-CF3D-4AB6-917E-581117ED1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="district" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$E$1175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">district!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">region!$A$1:$C$1</definedName>
   </definedNames>
@@ -10666,9 +10666,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10977,7 +10976,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30944,7 +30943,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E1175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -30954,23 +30953,23 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3439</v>
       </c>
       <c r="C1" t="s">
@@ -30981,7 +30980,7 @@
       <c r="A2">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3463</v>
       </c>
       <c r="C2">
@@ -30992,7 +30991,7 @@
       <c r="A3">
         <v>83</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3461</v>
       </c>
       <c r="C3">
@@ -31003,7 +31002,7 @@
       <c r="A4">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>221</v>
       </c>
       <c r="C4">
@@ -31014,7 +31013,7 @@
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>515</v>
       </c>
       <c r="C5">
@@ -31025,7 +31024,7 @@
       <c r="A6">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3482</v>
       </c>
       <c r="C6">
@@ -31036,7 +31035,7 @@
       <c r="A7">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>141</v>
       </c>
       <c r="C7">
@@ -31047,7 +31046,7 @@
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3509</v>
       </c>
       <c r="C8">
@@ -31058,7 +31057,7 @@
       <c r="A9">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3530</v>
       </c>
       <c r="C9">
@@ -31069,7 +31068,7 @@
       <c r="A10">
         <v>72</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3494</v>
       </c>
       <c r="C10">
@@ -31080,7 +31079,7 @@
       <c r="A11">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
       <c r="C11">
@@ -31091,7 +31090,7 @@
       <c r="A12">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3528</v>
       </c>
       <c r="C12">
@@ -31102,7 +31101,7 @@
       <c r="A13">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3476</v>
       </c>
       <c r="C13">
@@ -31113,7 +31112,7 @@
       <c r="A14">
         <v>61</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>3484</v>
       </c>
       <c r="C14">
@@ -31124,7 +31123,7 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>3462</v>
       </c>
       <c r="C15">
@@ -31135,7 +31134,7 @@
       <c r="A16">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>3489</v>
       </c>
       <c r="C16">
@@ -31146,7 +31145,7 @@
       <c r="A17">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
       <c r="C17">
@@ -31157,7 +31156,7 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>3508</v>
       </c>
       <c r="C18">
@@ -31168,7 +31167,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>3517</v>
       </c>
       <c r="C19">
@@ -31179,7 +31178,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>3518</v>
       </c>
       <c r="C20">
@@ -31190,7 +31189,7 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>3520</v>
       </c>
       <c r="C21">
@@ -31201,7 +31200,7 @@
       <c r="A22">
         <v>95</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>3505</v>
       </c>
       <c r="C22">
@@ -31212,7 +31211,7 @@
       <c r="A23">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>3493</v>
       </c>
       <c r="C23">
@@ -31223,7 +31222,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>3522</v>
       </c>
       <c r="C24">
@@ -31234,7 +31233,7 @@
       <c r="A25">
         <v>80</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>3501</v>
       </c>
       <c r="C25">
@@ -31245,7 +31244,7 @@
       <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>3525</v>
       </c>
       <c r="C26">
@@ -31256,7 +31255,7 @@
       <c r="A27">
         <v>38</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>3464</v>
       </c>
       <c r="C27">
@@ -31267,7 +31266,7 @@
       <c r="A28">
         <v>44</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>3470</v>
       </c>
       <c r="C28">
@@ -31278,7 +31277,7 @@
       <c r="A29">
         <v>48</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>3474</v>
       </c>
       <c r="C29">
@@ -31289,7 +31288,7 @@
       <c r="A30">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>3480</v>
       </c>
       <c r="C30">
@@ -31300,7 +31299,7 @@
       <c r="A31">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>3483</v>
       </c>
       <c r="C31">
@@ -31311,7 +31310,7 @@
       <c r="A32">
         <v>84</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>3527</v>
       </c>
       <c r="C32">
@@ -31322,7 +31321,7 @@
       <c r="A33">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>3485</v>
       </c>
       <c r="C33">
@@ -31333,7 +31332,7 @@
       <c r="A34">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>3490</v>
       </c>
       <c r="C34">
@@ -31344,7 +31343,7 @@
       <c r="A35">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>3515</v>
       </c>
       <c r="C35">
@@ -31355,7 +31354,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>3516</v>
       </c>
       <c r="C36">
@@ -31366,7 +31365,7 @@
       <c r="A37">
         <v>89</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>2441</v>
       </c>
       <c r="C37">
@@ -31377,7 +31376,7 @@
       <c r="A38">
         <v>13</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>3512</v>
       </c>
       <c r="C38">
@@ -31388,7 +31387,7 @@
       <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>3514</v>
       </c>
       <c r="C39">
@@ -31399,7 +31398,7 @@
       <c r="A40">
         <v>11</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>3510</v>
       </c>
       <c r="C40">
@@ -31410,7 +31409,7 @@
       <c r="A41">
         <v>12</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>3511</v>
       </c>
       <c r="C41">
@@ -31421,7 +31420,7 @@
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>3519</v>
       </c>
       <c r="C42">
@@ -31432,7 +31431,7 @@
       <c r="A43">
         <v>35</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
@@ -31443,7 +31442,7 @@
       <c r="A44">
         <v>26</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>3524</v>
       </c>
       <c r="C44">
@@ -31454,7 +31453,7 @@
       <c r="A45">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>56</v>
       </c>
       <c r="C45">
@@ -31465,7 +31464,7 @@
       <c r="A46">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>3473</v>
       </c>
       <c r="C46">
@@ -31476,7 +31475,7 @@
       <c r="A47">
         <v>50</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>104</v>
       </c>
       <c r="C47">
@@ -31487,7 +31486,7 @@
       <c r="A48">
         <v>32</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48">
@@ -31498,7 +31497,7 @@
       <c r="A49">
         <v>63</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>3486</v>
       </c>
       <c r="C49">
@@ -31509,7 +31508,7 @@
       <c r="A50">
         <v>64</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>3487</v>
       </c>
       <c r="C50">
@@ -31520,7 +31519,7 @@
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>3507</v>
       </c>
       <c r="C51">
@@ -31531,7 +31530,7 @@
       <c r="A52">
         <v>23</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>3521</v>
       </c>
       <c r="C52">
@@ -31542,7 +31541,7 @@
       <c r="A53">
         <v>25</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>3523</v>
       </c>
       <c r="C53">
@@ -31553,7 +31552,7 @@
       <c r="A54">
         <v>77</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>3498</v>
       </c>
       <c r="C54">
@@ -31564,7 +31563,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>3478</v>
       </c>
       <c r="C55">
@@ -31575,7 +31574,7 @@
       <c r="A56">
         <v>73</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>3495</v>
       </c>
       <c r="C56">
@@ -31586,7 +31585,7 @@
       <c r="A57">
         <v>79</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>3500</v>
       </c>
       <c r="C57">
@@ -31597,7 +31596,7 @@
       <c r="A58">
         <v>85</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>1311</v>
       </c>
       <c r="C58">
@@ -31608,7 +31607,7 @@
       <c r="A59">
         <v>81</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>3502</v>
       </c>
       <c r="C59">
@@ -31619,7 +31618,7 @@
       <c r="A60">
         <v>87</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>3529</v>
       </c>
       <c r="C60">
@@ -31630,7 +31629,7 @@
       <c r="A61">
         <v>40</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>3466</v>
       </c>
       <c r="C61">
@@ -31641,7 +31640,7 @@
       <c r="A62">
         <v>41</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>3467</v>
       </c>
       <c r="C62">
@@ -31652,7 +31651,7 @@
       <c r="A63">
         <v>42</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>3468</v>
       </c>
       <c r="C63">
@@ -31663,7 +31662,7 @@
       <c r="A64">
         <v>45</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>3471</v>
       </c>
       <c r="C64">
@@ -31674,7 +31673,7 @@
       <c r="A65">
         <v>46</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>3472</v>
       </c>
       <c r="C65">
@@ -31685,7 +31684,7 @@
       <c r="A66">
         <v>49</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>3475</v>
       </c>
       <c r="C66">
@@ -31696,7 +31695,7 @@
       <c r="A67">
         <v>52</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>3477</v>
       </c>
       <c r="C67">
@@ -31707,7 +31706,7 @@
       <c r="A68">
         <v>54</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>3479</v>
       </c>
       <c r="C68">
@@ -31718,7 +31717,7 @@
       <c r="A69">
         <v>56</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>3481</v>
       </c>
       <c r="C69">
@@ -31729,7 +31728,7 @@
       <c r="A70">
         <v>110</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>987</v>
       </c>
       <c r="C70">
@@ -31740,7 +31739,7 @@
       <c r="A71">
         <v>88</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>1850</v>
       </c>
       <c r="C71">
@@ -31751,7 +31750,7 @@
       <c r="A72">
         <v>65</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>3488</v>
       </c>
       <c r="C72">
@@ -31762,7 +31761,7 @@
       <c r="A73">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>3492</v>
       </c>
       <c r="C73">
@@ -31773,7 +31772,7 @@
       <c r="A74">
         <v>94</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>3504</v>
       </c>
       <c r="C74">
@@ -31784,7 +31783,7 @@
       <c r="A75">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>3496</v>
       </c>
       <c r="C75">
@@ -31795,7 +31794,7 @@
       <c r="A76">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>3497</v>
       </c>
       <c r="C76">
@@ -31806,7 +31805,7 @@
       <c r="A77">
         <v>78</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>3499</v>
       </c>
       <c r="C77">
@@ -31817,7 +31816,7 @@
       <c r="A78">
         <v>82</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>3503</v>
       </c>
       <c r="C78">
@@ -31828,7 +31827,7 @@
       <c r="A79">
         <v>39</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>3465</v>
       </c>
       <c r="C79">
@@ -31839,7 +31838,7 @@
       <c r="A80">
         <v>43</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>3469</v>
       </c>
       <c r="C80">
@@ -31850,7 +31849,7 @@
       <c r="A81">
         <v>31</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81">
@@ -31861,7 +31860,7 @@
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>3506</v>
       </c>
       <c r="C82">
@@ -31872,7 +31871,7 @@
       <c r="A83">
         <v>14</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>3513</v>
       </c>
       <c r="C83">
@@ -31883,7 +31882,7 @@
       <c r="A84">
         <v>111</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>3526</v>
       </c>
       <c r="C84">
@@ -31894,7 +31893,7 @@
       <c r="A85">
         <v>68</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>3491</v>
       </c>
       <c r="C85">
@@ -31905,7 +31904,7 @@
       <c r="A86">
         <v>112</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>2608</v>
       </c>
       <c r="C86">
